--- a/second_meta-analysis/IPD/De Santibanes (light).xlsx
+++ b/second_meta-analysis/IPD/De Santibanes (light).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\R-code and more\Antonis-Margonis\second_meta-analysis\IPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56968299-BB56-4AE5-8638-1FF3B10DB7F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA24A7-053D-4E5E-B223-0C72853FD9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3624" yWindow="1392" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <dimension ref="E1:Q596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P298" sqref="P298"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="P259" s="14" t="str">
-        <f t="shared" ref="P259:P322" si="4">IF(O259=2,"Yes",IF(O259&gt;2,"Censored","No"))</f>
+        <f t="shared" ref="P259:P320" si="4">IF(O259=2,"Yes",IF(O259&gt;2,"Censored","No"))</f>
         <v>No</v>
       </c>
       <c r="Q259" s="15">
@@ -19602,7 +19602,7 @@
         <v>2</v>
       </c>
       <c r="P453" s="14" t="str">
-        <f t="shared" ref="P451:P514" si="7">IF(O453=2,"Yes",IF(O453&gt;2,"Censored","No"))</f>
+        <f t="shared" ref="P453:P514" si="7">IF(O453=2,"Yes",IF(O453&gt;2,"Censored","No"))</f>
         <v>Yes</v>
       </c>
       <c r="Q453" s="15">
